--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -432,14 +432,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -447,6 +439,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,9 +469,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -746,23 +746,23 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="3" t="s">
@@ -798,7 +798,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2015</v>
       </c>
@@ -811,14 +811,14 @@
         <v>24</v>
       </c>
       <c r="F3" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7" t="str">
         <f t="shared" ref="G3:G10" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2015</v>
       </c>
@@ -838,7 +838,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>2016</v>
       </c>
@@ -858,7 +858,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2017</v>
       </c>
@@ -871,14 +871,14 @@
         <v>24</v>
       </c>
       <c r="F6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2018</v>
       </c>
@@ -898,7 +898,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>2018</v>
       </c>
@@ -918,7 +918,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>2019</v>
       </c>
@@ -938,7 +938,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2019</v>
       </c>
@@ -965,7 +965,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -995,14 +995,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Lithuanian Ethnographic Regions - Samogitia</t>
+  </si>
+  <si>
+    <t>Obv: With mint logo - "LMK"</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -423,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -746,23 +755,23 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -781,7 +790,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="3" t="s">
@@ -798,15 +807,19 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>2015</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="17" t="s">
         <v>24</v>
       </c>
@@ -818,15 +831,19 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>2015</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
@@ -838,15 +855,19 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>2016</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E5" s="17" t="s">
         <v>24</v>
       </c>
@@ -858,15 +879,19 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>2017</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="17" t="s">
         <v>24</v>
       </c>
@@ -878,15 +903,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>2018</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="17" t="s">
         <v>24</v>
       </c>
@@ -898,15 +927,19 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>2018</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="17" t="s">
         <v>26</v>
       </c>
@@ -918,15 +951,19 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>2019</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" s="17" t="s">
         <v>26</v>
       </c>
@@ -938,15 +975,19 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>2019</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="17" t="s">
         <v>26</v>
       </c>
@@ -995,14 +1036,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1024,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1035,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1046,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1057,7 +1098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1068,7 +1109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
@@ -30,7 +30,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -165,13 +165,25 @@
     <t>Lithuanian Multipart Songs - Sutartinės</t>
   </si>
   <si>
-    <t>Lithuanian Ethnographic Regions - Samogitia</t>
-  </si>
-  <si>
     <t>Obv: With mint logo - "LMK"</t>
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Lithuanian Ethnographic Regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samogitia</t>
+  </si>
+  <si>
+    <t>Aukštaitija</t>
+  </si>
+  <si>
+    <t>Hill of Crosses</t>
   </si>
 </sst>
 </file>
@@ -274,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -352,13 +364,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -418,6 +439,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,8 +454,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -439,7 +463,31 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -448,14 +496,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,9 +518,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="5"/>
+    <tableColumn id="2" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -749,253 +789,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
     <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="4" width="24.54296875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>2015</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18">
+      <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G10" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H3" s="7" t="str">
+        <f t="shared" ref="H3:H10" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>2015</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="18">
+      <c r="G4" s="18">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="str">
+      <c r="H4" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>2016</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="18">
+      <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="str">
+      <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>2017</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="18">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="str">
+      <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>2018</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="18">
+      <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="7" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>2018</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="18">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>2019</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="18">
+      <c r="G9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>2019</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="18">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" ref="H11" si="1">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" ref="H12" si="2">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1003,14 +1105,48 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F10">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F10">
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD1DEEE-273B-46DD-B91C-F00B43FECB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,17 +452,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -511,16 +512,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="5"/>
-    <tableColumn id="2" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -788,30 +789,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -821,8 +822,8 @@
       <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
@@ -831,7 +832,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="3" t="s">
@@ -851,7 +852,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2015</v>
       </c>
@@ -876,7 +877,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2015</v>
       </c>
@@ -901,7 +902,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>2016</v>
       </c>
@@ -926,7 +927,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2017</v>
       </c>
@@ -951,7 +952,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2018</v>
       </c>
@@ -976,7 +977,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>2018</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>2019</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2019</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2020</v>
       </c>
@@ -1069,7 +1070,9 @@
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="18">
         <v>0</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>2020</v>
       </c>
@@ -1092,7 +1095,9 @@
       <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="18">
         <v>0</v>
       </c>
@@ -1108,12 +1113,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G10">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G10">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1125,12 +1130,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1142,12 +1147,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1165,21 +1170,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1201,7 +1206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1258,12 +1263,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD1DEEE-273B-46DD-B91C-F00B43FECB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F66C33A-77A4-4F31-B08F-929F786B20D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -185,12 +194,45 @@
   </si>
   <si>
     <t>Hill of Crosses</t>
+  </si>
+  <si>
+    <t>Dzūkija</t>
+  </si>
+  <si>
+    <t>Žuvintas Biosphere Reserve</t>
+  </si>
+  <si>
+    <t>Suvalkija</t>
+  </si>
+  <si>
+    <t>100th Anniverary - Basketball in Lithuania</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Together with Ukraine</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Latvian edge </t>
+  </si>
+  <si>
+    <t>300.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +422,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -458,13 +500,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -519,9 +616,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -790,29 +887,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.54296875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="24.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -823,16 +920,17 @@
         <v>2</v>
       </c>
       <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="3" t="s">
@@ -844,15 +942,18 @@
       <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>2015</v>
       </c>
@@ -866,18 +967,19 @@
       <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="18">
+      <c r="H3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="str">
-        <f t="shared" ref="H3:H10" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I3" s="7" t="str">
+        <f t="shared" ref="I3:I10" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>2015</v>
       </c>
@@ -891,18 +993,19 @@
       <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>2016</v>
       </c>
@@ -916,18 +1019,19 @@
       <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="str">
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>2017</v>
       </c>
@@ -941,18 +1045,19 @@
       <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>2018</v>
       </c>
@@ -966,18 +1071,19 @@
       <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18">
+      <c r="H7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>2018</v>
       </c>
@@ -991,18 +1097,19 @@
       <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="18">
+      <c r="H8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>2019</v>
       </c>
@@ -1016,18 +1123,19 @@
       <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18">
+      <c r="H9" s="18">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>2019</v>
       </c>
@@ -1043,18 +1151,19 @@
       <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H10" s="18">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>2020</v>
       </c>
@@ -1070,18 +1179,19 @@
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="18">
+      <c r="H11" s="18">
         <v>0</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" ref="H11" si="1">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I11" s="7" t="str">
+        <f t="shared" ref="I11" si="1">IF(OR(AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>2020</v>
       </c>
@@ -1095,29 +1205,308 @@
       <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="18">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" ref="H12" si="2">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I12" s="7" t="str">
+        <f t="shared" ref="I12:I13" si="2">IF(OR(AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" ref="I14:I17" si="3">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="17">
+        <v>500</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" ref="I18" si="4">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" ref="I19" si="5">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G10">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G10">
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1129,13 +1518,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1146,13 +1535,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
     <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1177,14 +1583,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1206,7 +1612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1217,7 +1623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1228,7 +1634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1239,7 +1645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1250,7 +1656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F66C33A-77A4-4F31-B08F-929F786B20D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F01E68-BBA1-4DE1-A1D1-280430A61492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>300.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -485,6 +485,10 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,16 +501,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -514,6 +514,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -586,15 +595,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -616,9 +616,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -893,7 +893,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -910,46 +910,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -958,18 +958,18 @@
         <v>2015</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="18">
         <v>1</v>
@@ -984,18 +984,18 @@
         <v>2015</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="18">
         <v>1</v>
@@ -1010,18 +1010,18 @@
         <v>2016</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="18">
         <v>1</v>
@@ -1036,18 +1036,18 @@
         <v>2017</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="18">
         <v>1</v>
@@ -1062,18 +1062,18 @@
         <v>2018</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="18">
         <v>1</v>
@@ -1088,18 +1088,18 @@
         <v>2018</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="18">
         <v>1</v>
@@ -1114,18 +1114,18 @@
         <v>2019</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="18">
         <v>1</v>
@@ -1140,20 +1140,20 @@
         <v>2019</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="18">
         <v>1</v>
@@ -1168,20 +1168,20 @@
         <v>2020</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="18">
         <v>0</v>
@@ -1196,18 +1196,18 @@
         <v>2020</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="18">
         <v>0</v>
@@ -1222,20 +1222,20 @@
         <v>2021</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="18">
         <v>0</v>
@@ -1250,18 +1250,18 @@
         <v>2021</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="18">
         <v>0</v>
@@ -1276,23 +1276,23 @@
         <v>2021</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="17">
         <v>500</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>46</v>
+      <c r="H15" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -1301,20 +1301,20 @@
         <v>2022</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="18">
         <v>1</v>
@@ -1329,18 +1329,18 @@
         <v>2022</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="18">
         <v>0</v>
@@ -1355,18 +1355,18 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="18">
         <v>0</v>
@@ -1381,18 +1381,18 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="18">
         <v>0</v>
@@ -1403,12 +1403,12 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1417,7 +1417,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1434,7 +1434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1451,7 +1451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1468,7 +1468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1485,7 +1485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1502,7 +1502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1519,7 +1519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1536,7 +1536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1553,7 +1553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1592,13 +1592,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1606,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1617,10 +1617,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1628,10 +1628,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1639,10 +1639,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1650,10 +1650,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1661,10 +1661,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
